--- a/Consolidated_Reports/Batalan_Consolidated.xlsx
+++ b/Consolidated_Reports/Batalan_Consolidated.xlsx
@@ -1046,16 +1046,16 @@
     <t>86.02%</t>
   </si>
   <si>
-    <t>11:24:2025</t>
-  </si>
-  <si>
-    <t>11:20:2025</t>
-  </si>
-  <si>
-    <t>11:19:2025</t>
-  </si>
-  <si>
-    <t>11:18:2025</t>
+    <t>11-24-2025</t>
+  </si>
+  <si>
+    <t>11-20-2025</t>
+  </si>
+  <si>
+    <t>11-19-2025</t>
+  </si>
+  <si>
+    <t>11-18-2025</t>
   </si>
   <si>
     <t>Batalan</t>

--- a/Consolidated_Reports/Batalan_Consolidated.xlsx
+++ b/Consolidated_Reports/Batalan_Consolidated.xlsx
@@ -1133,7 +1133,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -6436,6 +6447,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I57">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISNUMBER(I2), I2&gt;=0, I2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J57">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(J2), J2&gt;=0, J2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K57">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(ISNUMBER(K2), K2&gt;=0, K2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7834,6 +7860,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISNUMBER(I2), I2&gt;=0, I2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J15">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(J2), J2&gt;=0, J2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K15">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(ISNUMBER(K2), K2&gt;=0, K2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9232,6 +9273,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISNUMBER(I2), I2&gt;=0, I2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J15">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(J2), J2&gt;=0, J2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K15">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(ISNUMBER(K2), K2&gt;=0, K2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10630,6 +10686,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISNUMBER(I2), I2&gt;=0, I2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J15">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(J2), J2&gt;=0, J2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K15">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(ISNUMBER(K2), K2&gt;=0, K2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12028,6 +12099,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISNUMBER(I2), I2&gt;=0, I2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J15">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(J2), J2&gt;=0, J2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K15">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(ISNUMBER(K2), K2&gt;=0, K2&lt;=14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>